--- a/Imports/Metric Allot Details.xlsx
+++ b/Imports/Metric Allot Details.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abhishek Gowda T N\OneDrive\Desktop\VibhuARMS-2\Imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB1A9F3-DD66-4297-8702-D561B956742E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABF6F08-63C9-43B7-B0CA-5CB90D023E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="130">
   <si>
     <t>- Approved BOS Minutes - Academic Minutes - Senate Council Meeting Minutes for the assessment period</t>
   </si>
@@ -84,9 +84,6 @@
     <t>Curriculum Revision : Percentage of courses introduced or revised vis-a-vis university prescribed curriculum across all programmes during the last three years a. Number of courses introduced or revised vis-a-vis university prescribed curriculum across all programmes during the last three years b. Total number of courses (without repeat count) across all programmes during the last three years</t>
   </si>
   <si>
-    <t>Attribute 1</t>
-  </si>
-  <si>
     <t>attribute_no</t>
   </si>
   <si>
@@ -100,9 +97,6 @@
   </si>
   <si>
     <t>weightage</t>
-  </si>
-  <si>
-    <t>Attribute 2</t>
   </si>
   <si>
     <t xml:space="preserve">Faculty Student Ratio 
@@ -216,9 +210,6 @@
 • Certificate/E-copy of the certificate of completion for faculty sponsored towards industrial training, fellowships etc.,</t>
   </si>
   <si>
-    <t>Attribute 3</t>
-  </si>
-  <si>
     <t xml:space="preserve">• Provide the statutory norms  of selected options  
 • Approved master plan of  the campus 
 • Geotagged Photos of each  selected options / Campus tour video depicting each of the selected options
@@ -395,9 +386,6 @@
     <t>• Description of the facilities along with Geotagged photographs / videos of the facilities</t>
   </si>
   <si>
-    <t>Attribute 4</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ratio of Capital Income Vs Capital Expenditure 
 1. The amount received towards Capital- Government grants, management 
 contributions, loans, endowments etc.  (INR in lakhs) 
@@ -462,9 +450,6 @@
 a. Internal audits  
 b. External/statutory audits  
 c. Risk Management approaches  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attribute 5 </t>
   </si>
   <si>
     <t xml:space="preserve">Pedagogical Approaches 
@@ -596,9 +581,6 @@
 • Notified exam date and result declaration date year – wise/ semester wise</t>
   </si>
   <si>
-    <t xml:space="preserve">Attribute 6 </t>
-  </si>
-  <si>
     <t xml:space="preserve">Domain related clubs, activities and festivals 
 a. Number of Domain clubs  
 b. Total number of activities  
@@ -694,9 +676,6 @@
 • Proofs of outcomes selected by the institution.</t>
   </si>
   <si>
-    <t xml:space="preserve">Attribute 7 </t>
-  </si>
-  <si>
     <t xml:space="preserve">Institutional Development Plan 
 The Institution has clearly stated its vision and mission and well aligned with 
 Institutional Development Plan (IDP) / strategic plan by promoting the same 
@@ -872,9 +851,6 @@
  • Report with photos appropriately dated and Captioned year- wise.</t>
   </si>
   <si>
-    <t>Attribute 8</t>
-  </si>
-  <si>
     <t xml:space="preserve">Student Enrolment  
 Percentage of students admitted in first year of the programmes against the 
 sanctioned seats during the last three years. 
@@ -928,9 +904,6 @@
     <t>• e-copies of award letters and certificates</t>
   </si>
   <si>
-    <t xml:space="preserve">Attribute 8 </t>
-  </si>
-  <si>
     <t xml:space="preserve">Learning Experience (Student /Alumni) 
 Survey 
 (Database of all students on roll and alumni in past three years need to be prepared 
@@ -938,9 +911,6 @@
   </si>
   <si>
     <t>• The List showing Enrolment number, Name, contact number and Email ID in excel sheet.</t>
-  </si>
-  <si>
-    <t>Attribute 9</t>
   </si>
   <si>
     <t xml:space="preserve">External Research Grants  
@@ -1144,9 +1114,6 @@
 • Report on environmental promotional activities conducted beyond the campus with geo-tagged photos with caption and date.
  • Green audit /Environment
  • Audit / Energy audit report of all the years from recognized bodies.</t>
-  </si>
-  <si>
-    <t>Attribute 11</t>
   </si>
   <si>
     <r>
@@ -1196,6 +1163,36 @@
           terms of academic/non- curriculum/Area)
            </t>
     </r>
+  </si>
+  <si>
+    <t>Attribute 01</t>
+  </si>
+  <si>
+    <t>Attribute 02</t>
+  </si>
+  <si>
+    <t>Attribute 03</t>
+  </si>
+  <si>
+    <t>Attribute 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attribute 05 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attribute 06 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attribute 07 </t>
+  </si>
+  <si>
+    <t>Attribute 08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attribute 08 </t>
+  </si>
+  <si>
+    <t>Attribute 09</t>
   </si>
 </sst>
 </file>
@@ -1594,8 +1591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="57" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:XFD45"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="57" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1609,24 +1606,24 @@
   <sheetData>
     <row r="1" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="B2" s="2">
         <v>1.1000000000000001</v>
@@ -1643,7 +1640,7 @@
     </row>
     <row r="3" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="B3" s="2">
         <v>1.2</v>
@@ -1660,7 +1657,7 @@
     </row>
     <row r="4" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="B4" s="2">
         <v>1.3</v>
@@ -1677,7 +1674,7 @@
     </row>
     <row r="5" spans="1:5" ht="145" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="B5" s="2">
         <v>1.4</v>
@@ -1694,7 +1691,7 @@
     </row>
     <row r="6" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="B6" s="2">
         <v>1.5</v>
@@ -1711,7 +1708,7 @@
     </row>
     <row r="7" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="B7" s="2">
         <v>1.6</v>
@@ -1728,7 +1725,7 @@
     </row>
     <row r="8" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="B8" s="2">
         <v>1.7</v>
@@ -1745,7 +1742,7 @@
     </row>
     <row r="9" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="B9" s="2">
         <v>1.8</v>
@@ -1762,16 +1759,16 @@
     </row>
     <row r="10" spans="1:5" ht="116" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>121</v>
       </c>
       <c r="B10" s="2">
         <v>2.1</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10" s="3">
         <v>10</v>
@@ -1779,16 +1776,16 @@
     </row>
     <row r="11" spans="1:5" ht="377" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>121</v>
       </c>
       <c r="B11" s="2">
         <v>2.2000000000000002</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E11" s="3">
         <v>25</v>
@@ -1796,16 +1793,16 @@
     </row>
     <row r="12" spans="1:5" ht="174" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>121</v>
       </c>
       <c r="B12" s="2">
         <v>2.2999999999999998</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E12" s="3">
         <v>15</v>
@@ -1813,16 +1810,16 @@
     </row>
     <row r="13" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
-        <v>29</v>
+        <v>122</v>
       </c>
       <c r="B13" s="6">
         <v>3.1</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E13" s="3">
         <v>10</v>
@@ -1830,16 +1827,16 @@
     </row>
     <row r="14" spans="1:5" ht="232" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>122</v>
       </c>
       <c r="B14" s="2">
         <v>3.2</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E14" s="3">
         <v>10</v>
@@ -1847,16 +1844,16 @@
     </row>
     <row r="15" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>29</v>
+        <v>122</v>
       </c>
       <c r="B15" s="2">
         <v>3.3</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E15" s="3">
         <v>15</v>
@@ -1864,16 +1861,16 @@
     </row>
     <row r="16" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>29</v>
+        <v>122</v>
       </c>
       <c r="B16" s="2">
         <v>3.4</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E16" s="3">
         <v>10</v>
@@ -1881,16 +1878,16 @@
     </row>
     <row r="17" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>29</v>
+        <v>122</v>
       </c>
       <c r="B17" s="2">
         <v>3.5</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E17" s="3">
         <v>5</v>
@@ -1898,16 +1895,16 @@
     </row>
     <row r="18" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>29</v>
+        <v>122</v>
       </c>
       <c r="B18" s="2">
         <v>3.6</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E18" s="3">
         <v>0</v>
@@ -1915,16 +1912,16 @@
     </row>
     <row r="19" spans="1:5" ht="333.5" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="B19" s="2">
         <v>4.0999999999999996</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E19" s="3">
         <v>15</v>
@@ -1932,16 +1929,16 @@
     </row>
     <row r="20" spans="1:5" ht="377" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="B20" s="2">
         <v>4.2</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E20" s="3">
         <v>15</v>
@@ -1949,16 +1946,16 @@
     </row>
     <row r="21" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="B21" s="2">
         <v>4.3</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E21" s="3">
         <v>10</v>
@@ -1966,16 +1963,16 @@
     </row>
     <row r="22" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="B22" s="2">
         <v>4.4000000000000004</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E22" s="3">
         <v>10</v>
@@ -1983,16 +1980,16 @@
     </row>
     <row r="23" spans="1:5" ht="145" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="B23" s="2">
         <v>5.0999999999999996</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E23" s="3">
         <v>35</v>
@@ -2000,16 +1997,16 @@
     </row>
     <row r="24" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="B24" s="2">
         <v>5.2</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E24" s="3">
         <v>20</v>
@@ -2017,16 +2014,16 @@
     </row>
     <row r="25" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="B25" s="2">
         <v>5.3</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E25" s="3">
         <v>25</v>
@@ -2034,16 +2031,16 @@
     </row>
     <row r="26" spans="1:5" ht="145" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="B26" s="2">
         <v>5.4</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E26" s="3">
         <v>25</v>
@@ -2051,16 +2048,16 @@
     </row>
     <row r="27" spans="1:5" ht="116" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="B27" s="2">
         <v>5.5</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E27" s="3">
         <v>15</v>
@@ -2068,16 +2065,16 @@
     </row>
     <row r="28" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="B28" s="2">
         <v>5.6</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E28" s="3">
         <v>15</v>
@@ -2085,16 +2082,16 @@
     </row>
     <row r="29" spans="1:5" ht="333.5" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="B29" s="2">
         <v>5.7</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E29" s="3">
         <v>15</v>
@@ -2102,16 +2099,16 @@
     </row>
     <row r="30" spans="1:5" ht="116" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="B30" s="2">
         <v>6.1</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E30" s="3">
         <v>25</v>
@@ -2119,16 +2116,16 @@
     </row>
     <row r="31" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="B31" s="2">
         <v>6.2</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E31" s="3">
         <v>25</v>
@@ -2136,16 +2133,16 @@
     </row>
     <row r="32" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="B32" s="2">
         <v>6.3</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E32" s="3">
         <v>15</v>
@@ -2153,16 +2150,16 @@
     </row>
     <row r="33" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="B33" s="2">
         <v>6.4</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E33" s="3">
         <v>15</v>
@@ -2170,16 +2167,16 @@
     </row>
     <row r="34" spans="1:5" ht="203" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="B34" s="2">
         <v>6.5</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E34" s="3">
         <v>20</v>
@@ -2187,16 +2184,16 @@
     </row>
     <row r="35" spans="1:5" ht="333.5" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="B35" s="2">
         <v>6.6</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E35" s="3">
         <v>25</v>
@@ -2204,16 +2201,16 @@
     </row>
     <row r="36" spans="1:5" ht="203" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="B36" s="2">
         <v>7.1</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E36" s="3">
         <v>10</v>
@@ -2221,16 +2218,16 @@
     </row>
     <row r="37" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="B37" s="2">
         <v>7.2</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E37" s="3">
         <v>10</v>
@@ -2238,16 +2235,16 @@
     </row>
     <row r="38" spans="1:5" ht="174" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="B38" s="2">
         <v>7.3</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E38" s="3">
         <v>10</v>
@@ -2255,16 +2252,16 @@
     </row>
     <row r="39" spans="1:5" ht="304.5" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="B39" s="2">
         <v>7.4</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E39" s="3">
         <v>15</v>
@@ -2272,16 +2269,16 @@
     </row>
     <row r="40" spans="1:5" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="B40" s="2">
         <v>7.5</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E40" s="3">
         <v>15</v>
@@ -2289,16 +2286,16 @@
     </row>
     <row r="41" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="B41" s="2">
         <v>7.6</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E41" s="3">
         <v>5</v>
@@ -2306,16 +2303,16 @@
     </row>
     <row r="42" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="B42" s="2">
         <v>7.7</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E42" s="3">
         <v>10</v>
@@ -2323,16 +2320,16 @@
     </row>
     <row r="43" spans="1:5" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="B43" s="2">
         <v>7.8</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E43" s="3">
         <v>10</v>
@@ -2340,16 +2337,16 @@
     </row>
     <row r="44" spans="1:5" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="B44" s="2">
         <v>7.9</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E44" s="3">
         <v>15</v>
@@ -2357,16 +2354,16 @@
     </row>
     <row r="45" spans="1:5" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="B45" s="2">
         <v>8.1</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E45" s="3">
         <v>20</v>
@@ -2374,16 +2371,16 @@
     </row>
     <row r="46" spans="1:5" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="B46" s="2">
         <v>8.1999999999999993</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E46" s="3">
         <v>30</v>
@@ -2391,16 +2388,16 @@
     </row>
     <row r="47" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="B47" s="2">
         <v>8.3000000000000007</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E47" s="3">
         <v>15</v>
@@ -2408,16 +2405,16 @@
     </row>
     <row r="48" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="B48" s="2">
         <v>8.4</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E48" s="3">
         <v>60</v>
@@ -2425,16 +2422,16 @@
     </row>
     <row r="49" spans="1:5" ht="203" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="B49" s="2">
         <v>9.1</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="E49" s="3">
         <v>20</v>
@@ -2442,16 +2439,16 @@
     </row>
     <row r="50" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="B50" s="2">
         <v>9.1999999999999993</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="E50" s="3">
         <v>25</v>
@@ -2459,16 +2456,16 @@
     </row>
     <row r="51" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="B51" s="2">
         <v>9.3000000000000007</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E51" s="3">
         <v>20</v>
@@ -2476,16 +2473,16 @@
     </row>
     <row r="52" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="B52" s="2">
         <v>9.4</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="E52" s="3">
         <v>20</v>
@@ -2493,16 +2490,16 @@
     </row>
     <row r="53" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="B53" s="2">
         <v>9.5</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E53" s="3">
         <v>5</v>
@@ -2510,16 +2507,16 @@
     </row>
     <row r="54" spans="1:5" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="B54" s="2">
         <v>9.6</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E54" s="3">
         <v>10</v>
@@ -2527,16 +2524,16 @@
     </row>
     <row r="55" spans="1:5" ht="406" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="B55" s="2">
         <v>9.6999999999999993</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="E55" s="3">
         <v>0</v>
@@ -2544,16 +2541,16 @@
     </row>
     <row r="56" spans="1:5" ht="245.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="6" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B56" s="6">
         <v>10.1</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E56" s="3">
         <v>25</v>
@@ -2561,16 +2558,16 @@
     </row>
     <row r="57" spans="1:5" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B57" s="2">
         <v>10.199999999999999</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="E57" s="3">
         <v>20</v>
@@ -2578,16 +2575,16 @@
     </row>
     <row r="58" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B58" s="2">
         <v>10.3</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="E58" s="3">
         <v>20</v>
@@ -2595,16 +2592,16 @@
     </row>
     <row r="59" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="B59" s="2">
         <v>10.4</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="E59" s="3">
         <v>10</v>
